--- a/cp-cs-vs/ig/StructureDefinition-eclaire-associated-party-r5.xlsx
+++ b/cp-cs-vs/ig/StructureDefinition-eclaire-associated-party-r5.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-18T16:21:07+00:00</t>
+    <t>2025-07-18T16:34:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
